--- a/inputs/user/model_matching.xlsx
+++ b/inputs/user/model_matching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\inputs\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8CF44E-F1AF-47D0-8DD7-51F6017A32FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9682E0-EB6C-407E-B36F-85B2A418BBD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passenger_transport_mode" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="vehicle_technology" sheetId="4" r:id="rId5"/>
     <sheet name="moto_technology" sheetId="6" r:id="rId6"/>
     <sheet name="bus_technology" sheetId="7" r:id="rId7"/>
+    <sheet name="air_pollutant" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
   <si>
     <t>Mode</t>
   </si>
@@ -451,6 +452,21 @@
   </si>
   <si>
     <t>CNG;Petrol-CNG</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>NMVOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
@@ -486,9 +502,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2D61C-50E3-4543-9FAD-F947925463A6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -1778,4 +1795,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23F276B-52A2-44AA-BAA5-D62D19C45128}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/user/model_matching.xlsx
+++ b/inputs/user/model_matching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\inputs\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9682E0-EB6C-407E-B36F-85B2A418BBD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769F5F8-E560-4BEE-B872-6476753090F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passenger_transport_mode" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
   <si>
     <t>Mode</t>
   </si>
@@ -82,391 +82,409 @@
     <t>Motorcycles;Motorcycles and Scooters</t>
   </si>
   <si>
+    <t>Private buses;Private hire buses;Private Hire Buses</t>
+  </si>
+  <si>
+    <t>Excursion buses;School buses (CB);School Buses</t>
+  </si>
+  <si>
+    <t>ALPINA</t>
+  </si>
+  <si>
+    <t>ASTON MARTIN</t>
+  </si>
+  <si>
+    <t>B.M.W.</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>CHRYSLER</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>FERRARI</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>INFINITI</t>
+  </si>
+  <si>
+    <t>JAGUAR</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>KOENIGSEGG</t>
+  </si>
+  <si>
+    <t>LAMBORGHINI</t>
+  </si>
+  <si>
+    <t>LAND ROVER</t>
+  </si>
+  <si>
+    <t>M.G.</t>
+  </si>
+  <si>
+    <t>MASERATI</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>Mclaren</t>
+  </si>
+  <si>
+    <t>MERCEDES BENZ</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>PORSCHE</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>ROLLS ROYCE</t>
+  </si>
+  <si>
+    <t>SSANGYONG</t>
+  </si>
+  <si>
+    <t>SUBARU</t>
+  </si>
+  <si>
+    <t>TESLA</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>TRIUMPH</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>ALFA ROMEO</t>
+  </si>
+  <si>
+    <t>CHERY</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>OPEL</t>
+  </si>
+  <si>
+    <t>PERODUA</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>DAIMLER</t>
+  </si>
+  <si>
+    <t>LOTUS</t>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>SKODA</t>
+  </si>
+  <si>
+    <t>DATSUN</t>
+  </si>
+  <si>
+    <t>LANCIA</t>
+  </si>
+  <si>
+    <t>PAGANI</t>
+  </si>
+  <si>
+    <t>RAMBLER</t>
+  </si>
+  <si>
+    <t>BLUECAR</t>
+  </si>
+  <si>
+    <t>AUSTIN</t>
+  </si>
+  <si>
+    <t>MCLAREN</t>
+  </si>
+  <si>
+    <t>ROVER</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>MITSUOKA</t>
+  </si>
+  <si>
+    <t>MAXUS</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>RUF</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Petrol-Electric</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>LTA</t>
+  </si>
+  <si>
+    <t>ICEV-G</t>
+  </si>
+  <si>
+    <t>ICEV-D</t>
+  </si>
+  <si>
+    <t>HEV-G</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>HEV-D</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>Petrol-Electric (Plug-In)</t>
+  </si>
+  <si>
+    <t>Diesel-Electric</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Multi-purpose Vehicle/Station-wagon</t>
+  </si>
+  <si>
+    <t>Sports Utility Vehicle</t>
+  </si>
+  <si>
+    <t>Coupe/ Convertible</t>
+  </si>
+  <si>
+    <t>Wagon</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Omnibuses;Buses</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Gasoline;Electricity</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>US_fueleconomy</t>
+  </si>
+  <si>
+    <t>LTA_population</t>
+  </si>
+  <si>
+    <t>LTA_fe</t>
+  </si>
+  <si>
+    <t>Asian_bank_name</t>
+  </si>
+  <si>
+    <t>Diesel Fuel</t>
+  </si>
+  <si>
+    <t>Compressed natural gas</t>
+  </si>
+  <si>
+    <t>Motor gasoline</t>
+  </si>
+  <si>
+    <t>ICEM-G</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>ICEB-G</t>
+  </si>
+  <si>
+    <t>ICEB-D</t>
+  </si>
+  <si>
+    <t>HEB-G</t>
+  </si>
+  <si>
+    <t>HEB-D</t>
+  </si>
+  <si>
+    <t>CNGB</t>
+  </si>
+  <si>
+    <t>Public bus</t>
+  </si>
+  <si>
+    <t>CNG;Petrol-CNG</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>NMVOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
     <t>Private cars;Company cars;Tuition cars;Rental cars;Off peak cars;Cars</t>
   </si>
   <si>
-    <t>Private buses;Private hire buses;Private Hire Buses</t>
-  </si>
-  <si>
-    <t>Excursion buses;School buses (CB);School Buses</t>
-  </si>
-  <si>
-    <t>ALPINA</t>
-  </si>
-  <si>
-    <t>ASTON MARTIN</t>
-  </si>
-  <si>
-    <t>B.M.W.</t>
-  </si>
-  <si>
-    <t>BENTLEY</t>
-  </si>
-  <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
-    <t>CHRYSLER</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
-  </si>
-  <si>
-    <t>DAIHATSU</t>
-  </si>
-  <si>
-    <t>FERRARI</t>
-  </si>
-  <si>
-    <t>FIAT</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>HYUNDAI</t>
-  </si>
-  <si>
-    <t>INFINITI</t>
-  </si>
-  <si>
-    <t>JAGUAR</t>
-  </si>
-  <si>
-    <t>JEEP</t>
-  </si>
-  <si>
-    <t>KIA</t>
-  </si>
-  <si>
-    <t>KOENIGSEGG</t>
-  </si>
-  <si>
-    <t>LAMBORGHINI</t>
-  </si>
-  <si>
-    <t>LAND ROVER</t>
-  </si>
-  <si>
-    <t>M.G.</t>
-  </si>
-  <si>
-    <t>MASERATI</t>
-  </si>
-  <si>
-    <t>MAZDA</t>
-  </si>
-  <si>
-    <t>Mclaren</t>
-  </si>
-  <si>
-    <t>MERCEDES BENZ</t>
-  </si>
-  <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>PEUGEOT</t>
-  </si>
-  <si>
-    <t>PORSCHE</t>
-  </si>
-  <si>
-    <t>RENAULT</t>
-  </si>
-  <si>
-    <t>ROLLS ROYCE</t>
-  </si>
-  <si>
-    <t>SSANGYONG</t>
-  </si>
-  <si>
-    <t>SUBARU</t>
-  </si>
-  <si>
-    <t>TESLA</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>TRIUMPH</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
-    <t>ALFA ROMEO</t>
-  </si>
-  <si>
-    <t>CHERY</t>
-  </si>
-  <si>
-    <t>MINI</t>
-  </si>
-  <si>
-    <t>OPEL</t>
-  </si>
-  <si>
-    <t>PERODUA</t>
-  </si>
-  <si>
-    <t>SUZUKI</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>AUDI</t>
-  </si>
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>DAIMLER</t>
-  </si>
-  <si>
-    <t>LOTUS</t>
-  </si>
-  <si>
-    <t>SEAT</t>
-  </si>
-  <si>
-    <t>SKODA</t>
-  </si>
-  <si>
-    <t>DATSUN</t>
-  </si>
-  <si>
-    <t>LANCIA</t>
-  </si>
-  <si>
-    <t>PAGANI</t>
-  </si>
-  <si>
-    <t>RAMBLER</t>
-  </si>
-  <si>
-    <t>BLUECAR</t>
-  </si>
-  <si>
-    <t>AUSTIN</t>
-  </si>
-  <si>
-    <t>MCLAREN</t>
-  </si>
-  <si>
-    <t>ROVER</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>MITSUOKA</t>
-  </si>
-  <si>
-    <t>MAXUS</t>
-  </si>
-  <si>
-    <t>SMART</t>
-  </si>
-  <si>
-    <t>MORRIS</t>
-  </si>
-  <si>
-    <t>RUF</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Petrol-Electric</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>LTA</t>
-  </si>
-  <si>
-    <t>ICEV-G</t>
-  </si>
-  <si>
-    <t>ICEV-D</t>
-  </si>
-  <si>
-    <t>HEV-G</t>
-  </si>
-  <si>
-    <t>PHEV</t>
-  </si>
-  <si>
-    <t>HEV-D</t>
-  </si>
-  <si>
-    <t>CNG</t>
-  </si>
-  <si>
-    <t>BEV</t>
-  </si>
-  <si>
-    <t>Petrol-Electric (Plug-In)</t>
-  </si>
-  <si>
-    <t>Diesel-Electric</t>
-  </si>
-  <si>
-    <t>Hatchback</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
-    <t>Multi-purpose Vehicle/Station-wagon</t>
-  </si>
-  <si>
-    <t>Sports Utility Vehicle</t>
-  </si>
-  <si>
-    <t>Coupe/ Convertible</t>
-  </si>
-  <si>
-    <t>Wagon</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>Coupe</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Omnibuses;Buses</t>
-  </si>
-  <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
-    <t>Gasoline;Electricity</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Subaru</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Mazda</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>US_fueleconomy</t>
-  </si>
-  <si>
-    <t>LTA_population</t>
-  </si>
-  <si>
-    <t>LTA_fe</t>
-  </si>
-  <si>
-    <t>Asian_bank_name</t>
-  </si>
-  <si>
-    <t>Diesel Fuel</t>
-  </si>
-  <si>
-    <t>Compressed natural gas</t>
-  </si>
-  <si>
-    <t>Motor gasoline</t>
-  </si>
-  <si>
-    <t>ICEM-G</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>EB</t>
-  </si>
-  <si>
-    <t>ICEB-G</t>
-  </si>
-  <si>
-    <t>ICEB-D</t>
-  </si>
-  <si>
-    <t>HEB-G</t>
-  </si>
-  <si>
-    <t>HEB-D</t>
-  </si>
-  <si>
-    <t>CNGB</t>
-  </si>
-  <si>
-    <t>Public bus</t>
-  </si>
-  <si>
-    <t>CNG;Petrol-CNG</t>
-  </si>
-  <si>
-    <t>Pollutant</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>NMVOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>PM</t>
+    <t>Private Hire (Self-Drive) cars;Private Hire (Chauffeur) cars</t>
+  </si>
+  <si>
+    <t>Private hire car</t>
+  </si>
+  <si>
+    <t>Mode_type</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Rapid transit</t>
   </si>
 </sst>
 </file>
@@ -786,20 +804,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,8 +827,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -818,56 +839,71 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -875,15 +911,38 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -906,54 +965,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -979,495 +1038,495 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1491,50 +1550,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1606,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,90 +1617,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1665,35 +1724,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1765,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,79 +1776,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23F276B-52A2-44AA-BAA5-D62D19C45128}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1809,27 +1868,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/user/model_matching.xlsx
+++ b/inputs/user/model_matching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\inputs\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\reducto\inputs\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769F5F8-E560-4BEE-B872-6476753090F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393FDAA-AF4A-40F2-B89D-2E6DECC3AAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passenger_transport_mode" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>Mode</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Petrol</t>
   </si>
   <si>
-    <t>Petrol-Electric</t>
-  </si>
-  <si>
     <t>Electric</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>PHEV</t>
   </si>
   <si>
-    <t>HEV-D</t>
-  </si>
-  <si>
     <t>CNG</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>Petrol-Electric (Plug-In)</t>
   </si>
   <si>
-    <t>Diesel-Electric</t>
-  </si>
-  <si>
     <t>Hatchback</t>
   </si>
   <si>
@@ -430,15 +421,9 @@
     <t>EB</t>
   </si>
   <si>
-    <t>ICEB-G</t>
-  </si>
-  <si>
     <t>ICEB-D</t>
   </si>
   <si>
-    <t>HEB-G</t>
-  </si>
-  <si>
     <t>HEB-D</t>
   </si>
   <si>
@@ -485,6 +470,15 @@
   </si>
   <si>
     <t>Rapid transit</t>
+  </si>
+  <si>
+    <t>Petrol-Electric;Diesel-Electric</t>
+  </si>
+  <si>
+    <t>Diesel;Petrol</t>
+  </si>
+  <si>
+    <t>Diesel-Electric;Petrol-Electric</t>
   </si>
 </sst>
 </file>
@@ -806,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,24 +833,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,16 +883,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -965,54 +959,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1038,13 +1032,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1327,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1475,7 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1499,7 @@
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,50 +1544,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1603,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2D61C-50E3-4543-9FAD-F947925463A6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,90 +1611,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB6570-CDF9-4444-B765-83D0A347169F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -1724,35 +1707,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC70199-415B-47AF-B413-20E36175AB15}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,79 +1759,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1868,27 +1829,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/user/model_matching.xlsx
+++ b/inputs/user/model_matching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\reducto\inputs\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\curtail_sgp\inputs\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393FDAA-AF4A-40F2-B89D-2E6DECC3AAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED58C6B-FDD6-438C-9ED9-C0F03CB8F1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passenger_transport_mode" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="vehicle_technology" sheetId="4" r:id="rId5"/>
     <sheet name="moto_technology" sheetId="6" r:id="rId6"/>
     <sheet name="bus_technology" sheetId="7" r:id="rId7"/>
-    <sheet name="air_pollutant" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>Mode</t>
   </si>
@@ -154,9 +153,6 @@
     <t>MAZDA</t>
   </si>
   <si>
-    <t>Mclaren</t>
-  </si>
-  <si>
     <t>MERCEDES BENZ</t>
   </si>
   <si>
@@ -436,21 +432,6 @@
     <t>CNG;Petrol-CNG</t>
   </si>
   <si>
-    <t>Pollutant</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>NMVOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>Private cars;Company cars;Tuition cars;Rental cars;Off peak cars;Cars</t>
   </si>
   <si>
@@ -479,6 +460,18 @@
   </si>
   <si>
     <t>Diesel-Electric;Petrol-Electric</t>
+  </si>
+  <si>
+    <t>GREET_name</t>
+  </si>
+  <si>
+    <t>Baseline Gasoline</t>
+  </si>
+  <si>
+    <t>Baseline Conventional and LS Diesel</t>
+  </si>
+  <si>
+    <t>Compressed Natural Gas, NA NG</t>
   </si>
 </sst>
 </file>
@@ -514,10 +507,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,24 +825,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,16 +875,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -946,67 +938,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7C96F-8C6F-4594-9583-D8E4F7712653}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1017,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F9F3AC-EC4A-4EEE-8907-BBC4EA818FEA}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,21 +1037,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,15 +1072,15 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1091,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,23 +1104,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,17 +1149,17 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,10 +1180,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1194,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1255,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,10 +1268,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1281,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1294,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,90 +1310,90 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,15 +1406,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,20 +1427,20 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,15 +1453,15 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,46 +1471,46 @@
       <c r="B58" t="s">
         <v>46</v>
       </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1513,14 +1518,6 @@
       </c>
       <c r="B64" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1544,50 +1541,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1611,79 +1608,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB6570-CDF9-4444-B765-83D0A347169F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -1707,35 +1704,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1759,97 +1756,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23F276B-52A2-44AA-BAA5-D62D19C45128}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
